--- a/Coronavirus (v2.5.0).xlsx
+++ b/Coronavirus (v2.5.0).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\druon\Desktop\LOL\COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46157186-541C-4E3D-A1EA-BD04D75D2D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D927BA5A-FA05-47E1-A4D8-1EB67B50F0FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C74FB7AA-F2FE-4EBA-A853-66368F783162}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="432">
   <si>
     <t>www.worldometers.info/coronavirus</t>
   </si>
@@ -1107,9 +1107,6 @@
     <t>10,1 M</t>
   </si>
   <si>
-    <t>10,3 M</t>
-  </si>
-  <si>
     <t>10,4 M</t>
   </si>
   <si>
@@ -1425,52 +1422,10 @@
     <t>14,9 M</t>
   </si>
   <si>
-    <t>TOP 10 des pays les plus touchés (au 13 novembre) :</t>
-  </si>
-  <si>
     <t>149 ms</t>
   </si>
   <si>
-    <t>10,2 s</t>
-  </si>
-  <si>
     <t>Italie</t>
-  </si>
-  <si>
-    <t>165 M</t>
-  </si>
-  <si>
-    <t>123 M</t>
-  </si>
-  <si>
-    <t>18,7 M</t>
-  </si>
-  <si>
-    <t>67,3 M</t>
-  </si>
-  <si>
-    <t>19,3 M</t>
-  </si>
-  <si>
-    <t>37,9 M</t>
-  </si>
-  <si>
-    <t>3,40 M</t>
-  </si>
-  <si>
-    <t>5,65 M</t>
-  </si>
-  <si>
-    <t>18,4 M</t>
-  </si>
-  <si>
-    <t>2,33 s</t>
-  </si>
-  <si>
-    <t>2 m 41 s</t>
-  </si>
-  <si>
-    <t>20 novembre 2021 (1a 6j)</t>
   </si>
   <si>
     <r>
@@ -1522,10 +1477,97 @@
     <t>2 mois et 2 jours</t>
   </si>
   <si>
-    <t>Février - Mars 2021</t>
-  </si>
-  <si>
     <t>Recalcul de toutes les données de 2020 et fixation de ces données de manière permanente.</t>
+  </si>
+  <si>
+    <t>Mars 2021 -</t>
+  </si>
+  <si>
+    <t>10,2 M</t>
+  </si>
+  <si>
+    <t>15,1 M</t>
+  </si>
+  <si>
+    <t>15,4 M</t>
+  </si>
+  <si>
+    <t>15,6 M</t>
+  </si>
+  <si>
+    <t>15,8 M</t>
+  </si>
+  <si>
+    <t>16,1 M</t>
+  </si>
+  <si>
+    <t>16,4 M</t>
+  </si>
+  <si>
+    <t>16,6 M</t>
+  </si>
+  <si>
+    <t>16,8 M</t>
+  </si>
+  <si>
+    <t>17,0 M</t>
+  </si>
+  <si>
+    <t>17,1 M</t>
+  </si>
+  <si>
+    <t>17,2 M</t>
+  </si>
+  <si>
+    <t>17,5 M</t>
+  </si>
+  <si>
+    <t>17,7 M</t>
+  </si>
+  <si>
+    <t>Première étape du déconfinement</t>
+  </si>
+  <si>
+    <t>TOP 10 des pays les plus touchés (au 27 novembre) :</t>
+  </si>
+  <si>
+    <t>189 M</t>
+  </si>
+  <si>
+    <t>137 M</t>
+  </si>
+  <si>
+    <t>74,8 M</t>
+  </si>
+  <si>
+    <t>20,3 M</t>
+  </si>
+  <si>
+    <t>42,6 M</t>
+  </si>
+  <si>
+    <t>21,4 M</t>
+  </si>
+  <si>
+    <t>3,83 M</t>
+  </si>
+  <si>
+    <t>6,29 M</t>
+  </si>
+  <si>
+    <t>8,49 s</t>
+  </si>
+  <si>
+    <t>6,96 s</t>
+  </si>
+  <si>
+    <t>2 m 46 s</t>
+  </si>
+  <si>
+    <t>Décembre 2020 -</t>
+  </si>
+  <si>
+    <t>Inversion de la liste des notes de mises à jour (les dernières mises à jour se retrouvent en haut de la liste).</t>
   </si>
 </sst>
 </file>
@@ -1750,7 +1792,7 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2001,6 +2043,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Insatisfaisant" xfId="4" builtinId="27"/>
@@ -2045,8 +2090,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66CCFF"/>
       <color rgb="FFC0C0C0"/>
-      <color rgb="FF66CCFF"/>
       <color rgb="FF99FF33"/>
       <color rgb="FF33CCCC"/>
       <color rgb="FF66FF99"/>
@@ -2179,10 +2224,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'(DB) Données Complètes'!$A$2:$A$288</c:f>
+              <c:f>'(DB) Données Complètes'!$A$2:$A$302</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="287"/>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>43862</c:v>
                 </c:pt>
@@ -3043,16 +3088,58 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>44162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(DB) Données Complètes'!$C$2:$C$288</c:f>
+              <c:f>'(DB) Données Complètes'!$C$2:$C$302</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="287"/>
+                <c:formatCode>_ * #.##0_ ;_ * \-#.##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>13000</c:v>
                 </c:pt>
@@ -3845,71 +3932,110 @@
                 <c:pt idx="264">
                   <c:v>9673000</c:v>
                 </c:pt>
-                <c:pt idx="265">
-                  <c:v>9915000</c:v>
-                </c:pt>
                 <c:pt idx="266">
-                  <c:v>10136000</c:v>
+                  <c:v>10118000</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>10312000</c:v>
+                  <c:v>10294000</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>10440000</c:v>
+                  <c:v>10423000</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>10629000</c:v>
+                  <c:v>10613000</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>10859000</c:v>
+                  <c:v>10842000</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>11128000</c:v>
+                  <c:v>11111000</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>11431000</c:v>
+                  <c:v>11413000</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>11674000</c:v>
+                  <c:v>11657000</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>11856000</c:v>
+                  <c:v>11843000</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>12044000</c:v>
+                  <c:v>12034000</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>12233000</c:v>
+                  <c:v>12226000</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>12482000</c:v>
+                  <c:v>12477000</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>12775000</c:v>
+                  <c:v>12773000</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>13118000</c:v>
+                  <c:v>13120000</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>13453000</c:v>
+                  <c:v>13461000</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>13712000</c:v>
+                  <c:v>13719000</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>13930000</c:v>
+                  <c:v>13941000</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>14150000</c:v>
+                  <c:v>14166000</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>14474000</c:v>
+                  <c:v>14486000</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>14573000</c:v>
+                  <c:v>14586000</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>14909000</c:v>
+                  <c:v>14927000</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>15197000</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>15440000</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>15602000</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>15676000</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>15893000</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>16152000</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>16430000</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>16657000</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>16864000</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>17002000</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>17146000</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>17297000</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>17530000</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>17735000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4261,10 +4387,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'(DB) Données Complètes'!$A$2:$A$288</c:f>
+              <c:f>'(DB) Données Complètes'!$A$2:$A$302</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="287"/>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>43862</c:v>
                 </c:pt>
@@ -5125,16 +5251,58 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>44162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(DB) Données Complètes'!$D$2:$D$288</c:f>
+              <c:f>'(DB) Données Complètes'!$D$2:$D$302</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="287"/>
+                <c:formatCode>_ * #.##0_ ;_ * \-#.##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5941,6 +6109,48 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>1741457</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1771213</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1797469</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1805299</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1847330</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1873049</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1891592</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1911384</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1927356</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1939793</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1942836</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1948899</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1962927</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1974467</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1984290</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7684,7 +7894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2733ED11-6989-4273-BE69-0BA9E3873236}">
-  <dimension ref="A1:P288"/>
+  <dimension ref="A1:P303"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7716,13 +7926,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="11" t="s">
@@ -7775,7 +7985,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="90"/>
       <c r="H3" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="30"/>
@@ -7855,7 +8065,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="12"/>
       <c r="L6" s="13">
-        <v>44149</v>
+        <v>44163</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -7908,7 +8118,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="11" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="P9" s="15"/>
     </row>
@@ -7943,13 +8153,13 @@
         <v>7</v>
       </c>
       <c r="M10" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>324</v>
-      </c>
       <c r="O10" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P10" s="15"/>
     </row>
@@ -7970,13 +8180,13 @@
         <v>4</v>
       </c>
       <c r="H11" s="4">
-        <v>53732484</v>
+        <v>61967745</v>
       </c>
       <c r="I11" s="4">
-        <v>1308568</v>
+        <v>1448294</v>
       </c>
       <c r="J11" s="5">
-        <v>14909763</v>
+        <v>17735394</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>15</v>
@@ -7985,10 +8195,10 @@
         <v>15</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="O11" s="15" t="s">
         <v>15</v>
@@ -8015,24 +8225,24 @@
         <v>9</v>
       </c>
       <c r="H12" s="25">
-        <v>11064364</v>
+        <v>13454346</v>
       </c>
       <c r="I12" s="25">
-        <v>249975</v>
+        <v>271029</v>
       </c>
       <c r="J12" s="20">
-        <v>4025243</v>
+        <v>5237732</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="L12" s="28">
-        <v>49.78</v>
+        <v>57.05</v>
       </c>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
       <c r="O12" s="85" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P12" s="85"/>
     </row>
@@ -8056,24 +8266,24 @@
         <v>16</v>
       </c>
       <c r="H13" s="75">
-        <v>8773243</v>
+        <v>9351224</v>
       </c>
       <c r="I13" s="75">
-        <v>129225</v>
+        <v>136238</v>
       </c>
       <c r="J13" s="76">
-        <v>482551</v>
+        <v>456100</v>
       </c>
       <c r="K13" s="76" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="L13" s="77">
-        <v>8.8800000000000008</v>
+        <v>9.89</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
       <c r="O13" s="85" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P13" s="85"/>
     </row>
@@ -8097,16 +8307,16 @@
         <v>11</v>
       </c>
       <c r="H14" s="78">
-        <v>5819496</v>
+        <v>6238350</v>
       </c>
       <c r="I14" s="78">
-        <v>164946</v>
+        <v>171998</v>
       </c>
       <c r="J14" s="21">
-        <v>386983</v>
+        <v>529828</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L14" s="27">
         <v>10.27</v>
@@ -8114,7 +8324,7 @@
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
       <c r="O14" s="85" t="s">
-        <v>410</v>
+        <v>336</v>
       </c>
       <c r="P14" s="85"/>
     </row>
@@ -8134,31 +8344,27 @@
       <c r="F15" s="5">
         <v>4</v>
       </c>
-      <c r="G15" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="82">
-        <v>1922504</v>
-      </c>
-      <c r="I15" s="82">
-        <v>43892</v>
-      </c>
-      <c r="J15" s="83">
-        <v>1741457</v>
-      </c>
-      <c r="K15" s="83" t="s">
-        <v>401</v>
-      </c>
-      <c r="L15" s="84">
-        <v>28.7</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="O15" s="85"/>
+      <c r="G15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="24">
+        <v>2215533</v>
+      </c>
+      <c r="I15" s="24">
+        <v>38558</v>
+      </c>
+      <c r="J15" s="23">
+        <v>464801</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="L15" s="29">
+        <v>51.25</v>
+      </c>
+      <c r="O15" s="85" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="16" spans="1:16" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
@@ -8177,23 +8383,29 @@
       <c r="F16" s="5">
         <v>5</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="24">
-        <v>1880551</v>
-      </c>
-      <c r="I16" s="24">
-        <v>32443</v>
-      </c>
-      <c r="J16" s="23">
-        <v>441205</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="L16" s="29">
-        <v>46.14</v>
+      <c r="G16" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="82">
+        <v>2196119</v>
+      </c>
+      <c r="I16" s="82">
+        <v>51914</v>
+      </c>
+      <c r="J16" s="83">
+        <v>1984290</v>
+      </c>
+      <c r="K16" s="83" t="s">
+        <v>422</v>
+      </c>
+      <c r="L16" s="84">
+        <v>31.11</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8217,19 +8429,19 @@
         <v>5</v>
       </c>
       <c r="H17" s="4">
-        <v>1492608</v>
+        <v>1646192</v>
       </c>
       <c r="I17" s="4">
-        <v>40769</v>
+        <v>44668</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>403</v>
+        <v>333</v>
       </c>
       <c r="L17" s="26">
-        <v>41.47</v>
+        <v>46.86</v>
       </c>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
@@ -8252,22 +8464,22 @@
         <v>7</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H18" s="24">
-        <v>1317496</v>
+        <v>1589301</v>
       </c>
       <c r="I18" s="24">
-        <v>51304</v>
+        <v>57551</v>
       </c>
       <c r="J18" s="23" t="s">
         <v>8</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="L18" s="29">
-        <v>55.74</v>
+        <v>62.62</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
@@ -8289,23 +8501,23 @@
       <c r="F19" s="5">
         <v>8</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1296378</v>
-      </c>
-      <c r="I19" s="4">
-        <v>35045</v>
-      </c>
-      <c r="J19" s="5">
-        <v>150856</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="L19" s="26">
-        <v>7.51</v>
+      <c r="G19" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="H19" s="24">
+        <v>1538217</v>
+      </c>
+      <c r="I19" s="24">
+        <v>53677</v>
+      </c>
+      <c r="J19" s="23">
+        <v>787893</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="L19" s="29">
+        <v>35.43</v>
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
@@ -8327,23 +8539,23 @@
       <c r="F20" s="5">
         <v>9</v>
       </c>
-      <c r="G20" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="24">
-        <v>1182697</v>
-      </c>
-      <c r="I20" s="24">
-        <v>33669</v>
-      </c>
-      <c r="J20" s="23">
-        <v>59688</v>
-      </c>
-      <c r="K20" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="L20" s="29">
-        <v>11.06</v>
+      <c r="G20" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1407277</v>
+      </c>
+      <c r="I20" s="4">
+        <v>38216</v>
+      </c>
+      <c r="J20" s="5">
+        <v>133804</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="L20" s="26">
+        <v>8.44</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
@@ -8367,22 +8579,22 @@
         <v>10</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>398</v>
+        <v>110</v>
       </c>
       <c r="H21" s="24">
-        <v>1107303</v>
+        <v>1290510</v>
       </c>
       <c r="I21" s="24">
-        <v>44139</v>
+        <v>36214</v>
       </c>
       <c r="J21" s="23">
-        <v>663926</v>
+        <v>64797</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="L21" s="29">
-        <v>30.54</v>
+        <v>12.32</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8401,12 +8613,6 @@
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
       <c r="M22" s="26"/>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
@@ -8840,7 +9046,7 @@
         <v>480</v>
       </c>
       <c r="E47" s="89" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -9845,7 +10051,7 @@
         <v>-314</v>
       </c>
       <c r="E102" s="89" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F102" s="8"/>
       <c r="H102" s="8"/>
@@ -10688,7 +10894,7 @@
         <v>235</v>
       </c>
       <c r="C149" s="68" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D149" s="23">
         <f t="shared" si="2"/>
@@ -10706,7 +10912,7 @@
         <v>236</v>
       </c>
       <c r="C150" s="68" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D150" s="23">
         <f t="shared" si="2"/>
@@ -10812,7 +11018,7 @@
         <v>241</v>
       </c>
       <c r="C156" s="69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D156" s="23">
         <f t="shared" si="2"/>
@@ -10829,7 +11035,7 @@
         <v>242</v>
       </c>
       <c r="C157" s="69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D157" s="23">
         <f t="shared" si="2"/>
@@ -10931,7 +11137,7 @@
         <v>248</v>
       </c>
       <c r="C163" s="69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D163" s="23">
         <f t="shared" si="2"/>
@@ -10948,7 +11154,7 @@
         <v>249</v>
       </c>
       <c r="C164" s="69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D164" s="23">
         <f t="shared" si="2"/>
@@ -10982,7 +11188,7 @@
         <v>251</v>
       </c>
       <c r="C166" s="69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D166" s="23">
         <f t="shared" si="2"/>
@@ -11048,7 +11254,7 @@
         <v>254</v>
       </c>
       <c r="C170" s="69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D170" s="23">
         <f t="shared" si="2"/>
@@ -11063,7 +11269,7 @@
         <v>255</v>
       </c>
       <c r="C171" s="69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D171" s="23">
         <f t="shared" si="2"/>
@@ -11153,7 +11359,7 @@
         <v>261</v>
       </c>
       <c r="C177" s="69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D177" s="23">
         <f t="shared" si="2"/>
@@ -11168,7 +11374,7 @@
         <v>262</v>
       </c>
       <c r="C178" s="69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D178" s="23">
         <f t="shared" si="2"/>
@@ -11258,7 +11464,7 @@
         <v>267</v>
       </c>
       <c r="C184" s="69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D184" s="23">
         <f t="shared" si="2"/>
@@ -11273,7 +11479,7 @@
         <v>109</v>
       </c>
       <c r="C185" s="69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D185" s="23">
         <f t="shared" si="2"/>
@@ -11363,7 +11569,7 @@
         <v>272</v>
       </c>
       <c r="C191" s="69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D191" s="23">
         <f t="shared" si="2"/>
@@ -11378,7 +11584,7 @@
         <v>273</v>
       </c>
       <c r="C192" s="69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D192" s="23">
         <f t="shared" si="2"/>
@@ -11468,7 +11674,7 @@
         <v>111</v>
       </c>
       <c r="C198" s="69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D198" s="23">
         <f t="shared" si="2"/>
@@ -11484,7 +11690,7 @@
         <v>112</v>
       </c>
       <c r="C199" s="69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D199" s="23">
         <f t="shared" si="2"/>
@@ -11736,7 +11942,7 @@
         <v>44076</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C216" s="6">
         <v>175375</v>
@@ -11781,7 +11987,7 @@
         <v>44079</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C219" s="6">
         <v>199429</v>
@@ -11961,7 +12167,7 @@
         <v>44091</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C231" s="6">
         <v>293546</v>
@@ -11976,7 +12182,7 @@
         <v>44092</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C232" s="6">
         <v>305873</v>
@@ -12036,7 +12242,7 @@
         <v>44096</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C236" s="6">
         <v>343115</v>
@@ -12066,7 +12272,7 @@
         <v>44098</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C238" s="6">
         <v>371313</v>
@@ -12081,7 +12287,7 @@
         <v>44099</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C239" s="6">
         <v>386482</v>
@@ -12096,7 +12302,7 @@
         <v>44100</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C240" s="6">
         <v>400443</v>
@@ -12126,7 +12332,7 @@
         <v>44102</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C242" s="6">
         <v>415057</v>
@@ -12156,7 +12362,7 @@
         <v>44104</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C244" s="6">
         <v>434782</v>
@@ -12171,7 +12377,7 @@
         <v>44105</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C245" s="6">
         <v>448215</v>
@@ -12186,7 +12392,7 @@
         <v>44106</v>
       </c>
       <c r="B246" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C246" s="6">
         <v>459720</v>
@@ -12201,7 +12407,7 @@
         <v>44107</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C247" s="6">
         <v>475897</v>
@@ -12216,7 +12422,7 @@
         <v>44108</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C248" s="6">
         <v>488586</v>
@@ -12231,7 +12437,7 @@
         <v>44109</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C249" s="6">
         <v>493295</v>
@@ -12246,7 +12452,7 @@
         <v>44110</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C250" s="6">
         <v>503103</v>
@@ -12261,7 +12467,7 @@
         <v>44111</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C251" s="6">
         <v>521271</v>
@@ -12276,7 +12482,7 @@
         <v>44112</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C252" s="6">
         <v>538811</v>
@@ -12291,7 +12497,7 @@
         <v>44113</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C253" s="6">
         <v>558519</v>
@@ -12306,7 +12512,7 @@
         <v>44114</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C254" s="6">
         <v>584878</v>
@@ -12321,7 +12527,7 @@
         <v>44115</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C255" s="6">
         <v>600753</v>
@@ -12336,7 +12542,7 @@
         <v>44116</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C256" s="6">
         <v>608755</v>
@@ -12351,7 +12557,7 @@
         <v>44117</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C257" s="6">
         <v>620859</v>
@@ -12366,7 +12572,7 @@
         <v>44118</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C258" s="6">
         <v>642613</v>
@@ -12381,7 +12587,7 @@
         <v>44119</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C259" s="6">
         <v>672477</v>
@@ -12396,7 +12602,7 @@
         <v>44120</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C260" s="6">
         <v>696771</v>
@@ -12411,7 +12617,7 @@
         <v>44121</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C261" s="6">
         <v>728611</v>
@@ -12426,7 +12632,7 @@
         <v>44122</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C262" s="6">
         <v>758126</v>
@@ -12441,7 +12647,7 @@
         <v>44123</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C263" s="6">
         <v>770719</v>
@@ -12456,7 +12662,7 @@
         <v>44124</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C264" s="6">
         <v>790021</v>
@@ -12471,7 +12677,7 @@
         <v>44125</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C265" s="6">
         <v>815721</v>
@@ -12486,7 +12692,7 @@
         <v>44126</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C266" s="6">
         <v>856234</v>
@@ -12497,11 +12703,11 @@
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="9">
+      <c r="A267" s="91">
         <v>44127</v>
       </c>
-      <c r="B267" s="5" t="s">
-        <v>380</v>
+      <c r="B267" s="72" t="s">
+        <v>379</v>
       </c>
       <c r="C267" s="6">
         <v>897081</v>
@@ -12526,7 +12732,7 @@
         <v>44449</v>
       </c>
       <c r="E268" s="89" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -12534,7 +12740,7 @@
         <v>44129</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>317</v>
+        <v>403</v>
       </c>
       <c r="C269" s="6">
         <v>993086</v>
@@ -12549,7 +12755,7 @@
         <v>44130</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C270" s="6">
         <v>1018913</v>
@@ -12564,7 +12770,7 @@
         <v>44131</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C271" s="6">
         <v>1050438</v>
@@ -12579,7 +12785,7 @@
         <v>44132</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C272" s="6">
         <v>1085370</v>
@@ -12594,13 +12800,13 @@
         <v>44133</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C273" s="6">
         <v>1131462</v>
       </c>
       <c r="D273" s="23">
-        <f t="shared" ref="D273:D288" si="4">IFERROR(IFERROR(IFERROR(C273-C272,C273-C271),C273-C270),0)</f>
+        <f>IFERROR(IFERROR(IFERROR(C273-C272,C273-C271),C273-C270),0)</f>
         <v>46092</v>
       </c>
     </row>
@@ -12609,17 +12815,17 @@
         <v>44134</v>
       </c>
       <c r="B274" s="87" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C274" s="88">
         <v>1178886</v>
       </c>
       <c r="D274" s="87">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IFERROR(IFERROR(C274-C273,C274-C272),C274-C271),0)</f>
         <v>47424</v>
       </c>
       <c r="E274" s="89" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -12627,13 +12833,13 @@
         <v>44135</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C275" s="6">
         <v>1213179</v>
       </c>
       <c r="D275" s="87">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IFERROR(IFERROR(C275-C274,C275-C273),C275-C272),0)</f>
         <v>34293</v>
       </c>
       <c r="F275" s="65"/>
@@ -12643,13 +12849,13 @@
         <v>44136</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C276" s="6">
         <v>1258669</v>
       </c>
       <c r="D276" s="87">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IFERROR(IFERROR(C276-C275,C276-C274),C276-C273),0)</f>
         <v>45490</v>
       </c>
     </row>
@@ -12658,13 +12864,13 @@
         <v>44137</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C277" s="6">
         <v>1309894</v>
       </c>
       <c r="D277" s="87">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IFERROR(IFERROR(C277-C276,C277-C275),C277-C274),0)</f>
         <v>51225</v>
       </c>
     </row>
@@ -12673,13 +12879,13 @@
         <v>44138</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C278" s="6">
         <v>1343760</v>
       </c>
       <c r="D278" s="87">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IFERROR(IFERROR(C278-C277,C278-C276),C278-C275),0)</f>
         <v>33866</v>
       </c>
     </row>
@@ -12688,13 +12894,13 @@
         <v>44139</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C279" s="6">
         <v>1381985</v>
       </c>
       <c r="D279" s="87">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IFERROR(IFERROR(C279-C278,C279-C277),C279-C276),0)</f>
         <v>38225</v>
       </c>
     </row>
@@ -12703,13 +12909,13 @@
         <v>44140</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C280" s="6">
         <v>1438052</v>
       </c>
       <c r="D280" s="87">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IFERROR(IFERROR(C280-C279,C280-C278),C280-C277),0)</f>
         <v>56067</v>
       </c>
     </row>
@@ -12718,13 +12924,13 @@
         <v>44141</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C281" s="6">
         <v>1495659</v>
       </c>
       <c r="D281" s="87">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IFERROR(IFERROR(C281-C280,C281-C279),C281-C278),0)</f>
         <v>57607</v>
       </c>
     </row>
@@ -12733,13 +12939,13 @@
         <v>44142</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C282" s="6">
         <v>1580598</v>
       </c>
       <c r="D282" s="87">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IFERROR(IFERROR(C282-C281,C282-C280),C282-C279),0)</f>
         <v>84939</v>
       </c>
     </row>
@@ -12748,13 +12954,13 @@
         <v>44143</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C283" s="6">
         <v>1618271</v>
       </c>
       <c r="D283" s="87">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IFERROR(IFERROR(C283-C282,C283-C281),C283-C280),0)</f>
         <v>37673</v>
       </c>
     </row>
@@ -12763,13 +12969,13 @@
         <v>44144</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C284" s="6">
         <v>1636757</v>
       </c>
       <c r="D284" s="87">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IFERROR(IFERROR(C284-C283,C284-C282),C284-C281),0)</f>
         <v>18486</v>
       </c>
     </row>
@@ -12778,13 +12984,13 @@
         <v>44145</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C285" s="6">
         <v>1655532</v>
       </c>
       <c r="D285" s="87">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IFERROR(IFERROR(C285-C284,C285-C283),C285-C282),0)</f>
         <v>18775</v>
       </c>
     </row>
@@ -12793,13 +12999,13 @@
         <v>44146</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C286" s="6">
         <v>1689307</v>
       </c>
       <c r="D286" s="87">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IFERROR(IFERROR(C286-C285,C286-C284),C286-C283),0)</f>
         <v>33775</v>
       </c>
     </row>
@@ -12808,13 +13014,13 @@
         <v>44147</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C287" s="6">
         <v>1720796</v>
       </c>
       <c r="D287" s="87">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IFERROR(IFERROR(C287-C286,C287-C285),C287-C284),0)</f>
         <v>31489</v>
       </c>
     </row>
@@ -12823,18 +13029,238 @@
         <v>44148</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C288" s="6">
         <v>1741457</v>
       </c>
       <c r="D288" s="87">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IFERROR(IFERROR(C288-C287,C288-C286),C288-C285),0)</f>
         <v>20661</v>
       </c>
     </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="9">
+        <v>44149</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C289" s="6">
+        <v>1771213</v>
+      </c>
+      <c r="D289" s="87">
+        <f>IFERROR(IFERROR(IFERROR('(DB) Données Complètes'!D289-C288,'(DB) Données Complètes'!D289-C287),'(DB) Données Complètes'!D289-C286),0)</f>
+        <v>29756</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="9">
+        <v>44150</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C290" s="6">
+        <v>1797469</v>
+      </c>
+      <c r="D290" s="87">
+        <f>IFERROR(IFERROR(IFERROR('(DB) Données Complètes'!D290-'(DB) Données Complètes'!D289,'(DB) Données Complètes'!D290-C288),'(DB) Données Complètes'!D290-C287),0)</f>
+        <v>26256</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="9">
+        <v>44151</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C291" s="6">
+        <v>1805299</v>
+      </c>
+      <c r="D291" s="87">
+        <f>IFERROR(IFERROR(IFERROR('(DB) Données Complètes'!D291-'(DB) Données Complètes'!D290,'(DB) Données Complètes'!D291-'(DB) Données Complètes'!D289),'(DB) Données Complètes'!D291-C288),0)</f>
+        <v>7830</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="9">
+        <v>44152</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C292" s="6">
+        <v>1847330</v>
+      </c>
+      <c r="D292" s="87">
+        <f>IFERROR(IFERROR(IFERROR('(DB) Données Complètes'!D292-'(DB) Données Complètes'!D291,'(DB) Données Complètes'!D292-'(DB) Données Complètes'!D290),'(DB) Données Complètes'!D292-'(DB) Données Complètes'!D289),0)</f>
+        <v>42031</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="9">
+        <v>44153</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C293" s="6">
+        <v>1873049</v>
+      </c>
+      <c r="D293" s="87">
+        <f>IFERROR(IFERROR(IFERROR('(DB) Données Complètes'!D293-'(DB) Données Complètes'!D292,'(DB) Données Complètes'!D293-'(DB) Données Complètes'!D291),'(DB) Données Complètes'!D293-'(DB) Données Complètes'!D290),0)</f>
+        <v>25719</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="9">
+        <v>44154</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C294" s="6">
+        <v>1891592</v>
+      </c>
+      <c r="D294" s="87">
+        <f>IFERROR(IFERROR(IFERROR('(DB) Données Complètes'!D294-'(DB) Données Complètes'!D293,'(DB) Données Complètes'!D294-'(DB) Données Complètes'!D292),'(DB) Données Complètes'!D294-'(DB) Données Complètes'!D291),0)</f>
+        <v>18543</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="9">
+        <v>44155</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C295" s="6">
+        <v>1911384</v>
+      </c>
+      <c r="D295" s="87">
+        <f>IFERROR(IFERROR(IFERROR('(DB) Données Complètes'!D295-'(DB) Données Complètes'!D294,'(DB) Données Complètes'!D295-'(DB) Données Complètes'!D293),'(DB) Données Complètes'!D295-'(DB) Données Complètes'!D292),0)</f>
+        <v>19792</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="9">
+        <v>44156</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C296" s="6">
+        <v>1927356</v>
+      </c>
+      <c r="D296" s="87">
+        <f>IFERROR(IFERROR(IFERROR('(DB) Données Complètes'!D296-'(DB) Données Complètes'!D295,'(DB) Données Complètes'!D296-'(DB) Données Complètes'!D294),'(DB) Données Complètes'!D296-'(DB) Données Complètes'!D293),0)</f>
+        <v>15972</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="9">
+        <v>44157</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C297" s="6">
+        <v>1939793</v>
+      </c>
+      <c r="D297" s="87">
+        <f>IFERROR(IFERROR(IFERROR('(DB) Données Complètes'!D297-'(DB) Données Complètes'!D296,'(DB) Données Complètes'!D297-'(DB) Données Complètes'!D295),'(DB) Données Complètes'!D297-'(DB) Données Complètes'!D294),0)</f>
+        <v>12437</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="9">
+        <v>44158</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C298" s="6">
+        <v>1942836</v>
+      </c>
+      <c r="D298" s="87">
+        <f>IFERROR(IFERROR(IFERROR('(DB) Données Complètes'!D298-'(DB) Données Complètes'!D297,'(DB) Données Complètes'!D298-'(DB) Données Complètes'!D296),'(DB) Données Complètes'!D298-'(DB) Données Complètes'!D295),0)</f>
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="9">
+        <v>44159</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C299" s="6">
+        <v>1948899</v>
+      </c>
+      <c r="D299" s="87">
+        <f>IFERROR(IFERROR(IFERROR('(DB) Données Complètes'!D299-'(DB) Données Complètes'!D298,'(DB) Données Complètes'!D299-'(DB) Données Complètes'!D297),'(DB) Données Complètes'!D299-'(DB) Données Complètes'!D296),0)</f>
+        <v>6063</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="9">
+        <v>44160</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C300" s="6">
+        <v>1962927</v>
+      </c>
+      <c r="D300" s="87">
+        <f>IFERROR(IFERROR(IFERROR('(DB) Données Complètes'!D300-'(DB) Données Complètes'!D299,'(DB) Données Complètes'!D300-'(DB) Données Complètes'!D298),'(DB) Données Complètes'!D300-'(DB) Données Complètes'!D297),0)</f>
+        <v>14028</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="9">
+        <v>44161</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C301" s="6">
+        <v>1974467</v>
+      </c>
+      <c r="D301" s="87">
+        <f>IFERROR(IFERROR(IFERROR('(DB) Données Complètes'!D301-'(DB) Données Complètes'!D300,'(DB) Données Complètes'!D301-'(DB) Données Complètes'!D299),'(DB) Données Complètes'!D301-'(DB) Données Complètes'!D298),0)</f>
+        <v>11540</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="9">
+        <v>44162</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C302" s="6">
+        <v>1984290</v>
+      </c>
+      <c r="D302" s="87">
+        <f>IFERROR(IFERROR(IFERROR('(DB) Données Complètes'!D302-'(DB) Données Complètes'!D301,'(DB) Données Complètes'!D302-'(DB) Données Complètes'!D300),'(DB) Données Complètes'!D302-'(DB) Données Complètes'!D299),0)</f>
+        <v>9823</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="86">
+        <v>44163</v>
+      </c>
+      <c r="B303" s="87"/>
+      <c r="C303" s="88"/>
+      <c r="E303" s="89" t="s">
+        <v>417</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D15:D288">
+  <conditionalFormatting sqref="D15:D302">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
       <formula>IFERROR(IFERROR(-0.01*C14,-0.01*C13),-0.01*C12)</formula>
       <formula>IFERROR(IFERROR(0.01*C14,0.01*C13),0.01*C12)</formula>
@@ -12916,7 +13342,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B5" s="55"/>
     </row>
@@ -12949,19 +13375,19 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B11" s="55"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B12" s="55"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B13" s="40"/>
     </row>
@@ -12977,7 +13403,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B16" s="55"/>
     </row>
@@ -12999,7 +13425,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0498A98C-80B5-487F-9E05-BA2DF6102CD5}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13415,16 +13841,16 @@
         <v>44135</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>31</v>
       </c>
       <c r="D27" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="E27" s="33" t="s">
         <v>332</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -13432,10 +13858,10 @@
         <v>44135</v>
       </c>
       <c r="B28" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="C28" s="36" t="s">
         <v>330</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>331</v>
       </c>
       <c r="D28" s="70"/>
       <c r="E28" s="71"/>
@@ -13445,10 +13871,10 @@
         <v>44135</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D29" s="70"/>
       <c r="E29" s="71"/>
@@ -13458,16 +13884,16 @@
         <v>44149</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C30" s="36" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -13475,10 +13901,10 @@
         <v>44149</v>
       </c>
       <c r="B31" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="C31" s="36" t="s">
         <v>340</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>341</v>
       </c>
       <c r="D31" s="38"/>
       <c r="E31" s="39"/>
@@ -13488,10 +13914,10 @@
         <v>44149</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D32" s="38"/>
       <c r="E32" s="39"/>
@@ -13501,10 +13927,10 @@
         <v>44149</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D33" s="38"/>
       <c r="E33" s="39"/>
@@ -13514,10 +13940,10 @@
         <v>44149</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="D34" s="38"/>
       <c r="E34" s="39"/>
@@ -13529,10 +13955,18 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="36" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>417</v>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="92" t="s">
+        <v>402</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -13544,7 +13978,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0051AC5D-FE47-43E6-8AF1-4AEA504DE4AE}">
-  <dimension ref="A1:N288"/>
+  <dimension ref="A1:N302"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16636,7 +17070,7 @@
         <v>3275</v>
       </c>
       <c r="C133" s="23">
-        <f t="shared" ref="C133:C288" si="2">B133*1000</f>
+        <f t="shared" ref="C133:C302" si="2">B133*1000</f>
         <v>3275000</v>
       </c>
       <c r="D133" s="8">
@@ -18733,16 +19167,10 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="9">
+      <c r="A267" s="91">
         <v>44127</v>
       </c>
-      <c r="B267" s="6">
-        <v>9915</v>
-      </c>
-      <c r="C267" s="6">
-        <f t="shared" si="2"/>
-        <v>9915000</v>
-      </c>
+      <c r="B267" s="79"/>
       <c r="D267" s="6">
         <v>897081</v>
       </c>
@@ -18752,11 +19180,11 @@
         <v>44128</v>
       </c>
       <c r="B268" s="6">
-        <v>10136</v>
+        <v>10118</v>
       </c>
       <c r="C268" s="6">
         <f t="shared" si="2"/>
-        <v>10136000</v>
+        <v>10118000</v>
       </c>
       <c r="D268" s="6">
         <v>941530</v>
@@ -18767,11 +19195,11 @@
         <v>44129</v>
       </c>
       <c r="B269" s="6">
-        <v>10312</v>
+        <v>10294</v>
       </c>
       <c r="C269" s="6">
         <f t="shared" si="2"/>
-        <v>10312000</v>
+        <v>10294000</v>
       </c>
       <c r="D269" s="6">
         <v>993086</v>
@@ -18782,11 +19210,11 @@
         <v>44130</v>
       </c>
       <c r="B270" s="6">
-        <v>10440</v>
+        <v>10423</v>
       </c>
       <c r="C270" s="6">
         <f t="shared" si="2"/>
-        <v>10440000</v>
+        <v>10423000</v>
       </c>
       <c r="D270" s="6">
         <v>1018913</v>
@@ -18797,11 +19225,11 @@
         <v>44131</v>
       </c>
       <c r="B271" s="6">
-        <v>10629</v>
+        <v>10613</v>
       </c>
       <c r="C271" s="6">
         <f t="shared" si="2"/>
-        <v>10629000</v>
+        <v>10613000</v>
       </c>
       <c r="D271" s="6">
         <v>1050438</v>
@@ -18812,11 +19240,11 @@
         <v>44132</v>
       </c>
       <c r="B272" s="6">
-        <v>10859</v>
+        <v>10842</v>
       </c>
       <c r="C272" s="6">
         <f t="shared" si="2"/>
-        <v>10859000</v>
+        <v>10842000</v>
       </c>
       <c r="D272" s="6">
         <v>1085370</v>
@@ -18827,11 +19255,11 @@
         <v>44133</v>
       </c>
       <c r="B273" s="6">
-        <v>11128</v>
+        <v>11111</v>
       </c>
       <c r="C273" s="6">
         <f t="shared" si="2"/>
-        <v>11128000</v>
+        <v>11111000</v>
       </c>
       <c r="D273" s="6">
         <v>1131462</v>
@@ -18842,11 +19270,11 @@
         <v>44134</v>
       </c>
       <c r="B274" s="6">
-        <v>11431</v>
+        <v>11413</v>
       </c>
       <c r="C274" s="6">
         <f t="shared" si="2"/>
-        <v>11431000</v>
+        <v>11413000</v>
       </c>
       <c r="D274" s="6">
         <v>1178886</v>
@@ -18857,11 +19285,11 @@
         <v>44135</v>
       </c>
       <c r="B275" s="6">
-        <v>11674</v>
+        <v>11657</v>
       </c>
       <c r="C275" s="6">
         <f t="shared" si="2"/>
-        <v>11674000</v>
+        <v>11657000</v>
       </c>
       <c r="D275" s="6">
         <v>1213179</v>
@@ -18872,11 +19300,11 @@
         <v>44136</v>
       </c>
       <c r="B276" s="6">
-        <v>11856</v>
+        <v>11843</v>
       </c>
       <c r="C276" s="6">
         <f t="shared" si="2"/>
-        <v>11856000</v>
+        <v>11843000</v>
       </c>
       <c r="D276" s="6">
         <v>1258669</v>
@@ -18887,11 +19315,11 @@
         <v>44137</v>
       </c>
       <c r="B277" s="6">
-        <v>12044</v>
+        <v>12034</v>
       </c>
       <c r="C277" s="6">
         <f t="shared" si="2"/>
-        <v>12044000</v>
+        <v>12034000</v>
       </c>
       <c r="D277" s="6">
         <v>1309894</v>
@@ -18902,11 +19330,11 @@
         <v>44138</v>
       </c>
       <c r="B278" s="6">
-        <v>12233</v>
+        <v>12226</v>
       </c>
       <c r="C278" s="6">
         <f t="shared" si="2"/>
-        <v>12233000</v>
+        <v>12226000</v>
       </c>
       <c r="D278" s="6">
         <v>1343760</v>
@@ -18917,11 +19345,11 @@
         <v>44139</v>
       </c>
       <c r="B279" s="6">
-        <v>12482</v>
+        <v>12477</v>
       </c>
       <c r="C279" s="6">
         <f t="shared" si="2"/>
-        <v>12482000</v>
+        <v>12477000</v>
       </c>
       <c r="D279" s="6">
         <v>1381985</v>
@@ -18932,11 +19360,11 @@
         <v>44140</v>
       </c>
       <c r="B280" s="6">
-        <v>12775</v>
+        <v>12773</v>
       </c>
       <c r="C280" s="6">
         <f t="shared" si="2"/>
-        <v>12775000</v>
+        <v>12773000</v>
       </c>
       <c r="D280" s="6">
         <v>1438052</v>
@@ -18947,11 +19375,11 @@
         <v>44141</v>
       </c>
       <c r="B281" s="6">
-        <v>13118</v>
+        <v>13120</v>
       </c>
       <c r="C281" s="6">
         <f t="shared" si="2"/>
-        <v>13118000</v>
+        <v>13120000</v>
       </c>
       <c r="D281" s="6">
         <v>1495659</v>
@@ -18962,11 +19390,11 @@
         <v>44142</v>
       </c>
       <c r="B282" s="6">
-        <v>13453</v>
+        <v>13461</v>
       </c>
       <c r="C282" s="6">
         <f t="shared" si="2"/>
-        <v>13453000</v>
+        <v>13461000</v>
       </c>
       <c r="D282" s="6">
         <v>1580598</v>
@@ -18977,11 +19405,11 @@
         <v>44143</v>
       </c>
       <c r="B283" s="6">
-        <v>13712</v>
+        <v>13719</v>
       </c>
       <c r="C283" s="6">
         <f t="shared" si="2"/>
-        <v>13712000</v>
+        <v>13719000</v>
       </c>
       <c r="D283" s="6">
         <v>1618271</v>
@@ -18992,11 +19420,11 @@
         <v>44144</v>
       </c>
       <c r="B284" s="6">
-        <v>13930</v>
+        <v>13941</v>
       </c>
       <c r="C284" s="6">
         <f t="shared" si="2"/>
-        <v>13930000</v>
+        <v>13941000</v>
       </c>
       <c r="D284" s="6">
         <v>1636757</v>
@@ -19007,11 +19435,11 @@
         <v>44145</v>
       </c>
       <c r="B285" s="6">
-        <v>14150</v>
+        <v>14166</v>
       </c>
       <c r="C285" s="6">
         <f t="shared" si="2"/>
-        <v>14150000</v>
+        <v>14166000</v>
       </c>
       <c r="D285" s="6">
         <v>1655532</v>
@@ -19022,11 +19450,11 @@
         <v>44146</v>
       </c>
       <c r="B286" s="6">
-        <v>14474</v>
+        <v>14486</v>
       </c>
       <c r="C286" s="6">
         <f t="shared" si="2"/>
-        <v>14474000</v>
+        <v>14486000</v>
       </c>
       <c r="D286" s="6">
         <v>1689307</v>
@@ -19037,11 +19465,11 @@
         <v>44147</v>
       </c>
       <c r="B287" s="6">
-        <v>14573</v>
+        <v>14586</v>
       </c>
       <c r="C287" s="6">
         <f t="shared" si="2"/>
-        <v>14573000</v>
+        <v>14586000</v>
       </c>
       <c r="D287" s="6">
         <v>1720796</v>
@@ -19052,14 +19480,224 @@
         <v>44148</v>
       </c>
       <c r="B288" s="6">
-        <v>14909</v>
+        <v>14927</v>
       </c>
       <c r="C288" s="6">
         <f t="shared" si="2"/>
-        <v>14909000</v>
+        <v>14927000</v>
       </c>
       <c r="D288" s="6">
         <v>1741457</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="9">
+        <v>44149</v>
+      </c>
+      <c r="B289" s="6">
+        <v>15197</v>
+      </c>
+      <c r="C289" s="6">
+        <f t="shared" si="2"/>
+        <v>15197000</v>
+      </c>
+      <c r="D289" s="6">
+        <v>1771213</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="9">
+        <v>44150</v>
+      </c>
+      <c r="B290" s="6">
+        <v>15440</v>
+      </c>
+      <c r="C290" s="6">
+        <f t="shared" si="2"/>
+        <v>15440000</v>
+      </c>
+      <c r="D290" s="6">
+        <v>1797469</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="9">
+        <v>44151</v>
+      </c>
+      <c r="B291" s="6">
+        <v>15602</v>
+      </c>
+      <c r="C291" s="6">
+        <f t="shared" si="2"/>
+        <v>15602000</v>
+      </c>
+      <c r="D291" s="6">
+        <v>1805299</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="9">
+        <v>44152</v>
+      </c>
+      <c r="B292" s="6">
+        <v>15676</v>
+      </c>
+      <c r="C292" s="6">
+        <f t="shared" si="2"/>
+        <v>15676000</v>
+      </c>
+      <c r="D292" s="6">
+        <v>1847330</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="9">
+        <v>44153</v>
+      </c>
+      <c r="B293" s="6">
+        <v>15893</v>
+      </c>
+      <c r="C293" s="6">
+        <f t="shared" si="2"/>
+        <v>15893000</v>
+      </c>
+      <c r="D293" s="6">
+        <v>1873049</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="9">
+        <v>44154</v>
+      </c>
+      <c r="B294" s="6">
+        <v>16152</v>
+      </c>
+      <c r="C294" s="6">
+        <f t="shared" si="2"/>
+        <v>16152000</v>
+      </c>
+      <c r="D294" s="6">
+        <v>1891592</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="9">
+        <v>44155</v>
+      </c>
+      <c r="B295" s="6">
+        <v>16430</v>
+      </c>
+      <c r="C295" s="6">
+        <f t="shared" si="2"/>
+        <v>16430000</v>
+      </c>
+      <c r="D295" s="6">
+        <v>1911384</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="9">
+        <v>44156</v>
+      </c>
+      <c r="B296" s="6">
+        <v>16657</v>
+      </c>
+      <c r="C296" s="6">
+        <f t="shared" si="2"/>
+        <v>16657000</v>
+      </c>
+      <c r="D296" s="6">
+        <v>1927356</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="9">
+        <v>44157</v>
+      </c>
+      <c r="B297" s="6">
+        <v>16864</v>
+      </c>
+      <c r="C297" s="6">
+        <f t="shared" si="2"/>
+        <v>16864000</v>
+      </c>
+      <c r="D297" s="6">
+        <v>1939793</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="9">
+        <v>44158</v>
+      </c>
+      <c r="B298" s="6">
+        <v>17002</v>
+      </c>
+      <c r="C298" s="6">
+        <f t="shared" si="2"/>
+        <v>17002000</v>
+      </c>
+      <c r="D298" s="6">
+        <v>1942836</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="9">
+        <v>44159</v>
+      </c>
+      <c r="B299" s="6">
+        <v>17146</v>
+      </c>
+      <c r="C299" s="6">
+        <f t="shared" si="2"/>
+        <v>17146000</v>
+      </c>
+      <c r="D299" s="6">
+        <v>1948899</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="9">
+        <v>44160</v>
+      </c>
+      <c r="B300" s="6">
+        <v>17297</v>
+      </c>
+      <c r="C300" s="6">
+        <f t="shared" si="2"/>
+        <v>17297000</v>
+      </c>
+      <c r="D300" s="6">
+        <v>1962927</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="9">
+        <v>44161</v>
+      </c>
+      <c r="B301" s="6">
+        <v>17530</v>
+      </c>
+      <c r="C301" s="6">
+        <f t="shared" si="2"/>
+        <v>17530000</v>
+      </c>
+      <c r="D301" s="6">
+        <v>1974467</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="9">
+        <v>44162</v>
+      </c>
+      <c r="B302" s="6">
+        <v>17735</v>
+      </c>
+      <c r="C302" s="6">
+        <f t="shared" si="2"/>
+        <v>17735000</v>
+      </c>
+      <c r="D302" s="6">
+        <v>1984290</v>
       </c>
     </row>
   </sheetData>
